--- a/codigo_final_organizado/analisis/Resultados_analisis/Tamaño/N_Train_200/Tests_Estadisticos/dm_comparaciones_MCPS_Lineal_Estacionario_ARMA.xlsx
+++ b/codigo_final_organizado/analisis/Resultados_analisis/Tamaño/N_Train_200/Tests_Estadisticos/dm_comparaciones_MCPS_Lineal_Estacionario_ARMA.xlsx
@@ -441,10 +441,10 @@
         <v>40</v>
       </c>
       <c r="C2">
-        <v>0.9037931519300179</v>
+        <v>1.086979095468127</v>
       </c>
       <c r="D2">
-        <v>0.3662347460346989</v>
+        <v>0.2888123221353156</v>
       </c>
       <c r="E2">
         <v>0.7180832870513051</v>
@@ -467,10 +467,10 @@
         <v>60</v>
       </c>
       <c r="C3">
-        <v>0.8145957135829208</v>
+        <v>0.7707942849999454</v>
       </c>
       <c r="D3">
-        <v>0.4154192868673572</v>
+        <v>0.4490282397069658</v>
       </c>
       <c r="E3">
         <v>0.7180832870513051</v>
@@ -493,10 +493,10 @@
         <v>100</v>
       </c>
       <c r="C4">
-        <v>1.316565077496338</v>
+        <v>1.21983697151183</v>
       </c>
       <c r="D4">
-        <v>0.1881641345252896</v>
+        <v>0.2354427166746622</v>
       </c>
       <c r="E4">
         <v>0.7180832870513051</v>
@@ -519,10 +519,10 @@
         <v>200</v>
       </c>
       <c r="C5">
-        <v>4.984695664686203</v>
+        <v>6.371553553811489</v>
       </c>
       <c r="D5">
-        <v>6.846724240894275E-07</v>
+        <v>2.065684132634971E-06</v>
       </c>
       <c r="E5">
         <v>0.7180832870513051</v>
@@ -545,10 +545,10 @@
         <v>60</v>
       </c>
       <c r="C6">
-        <v>-0.01724073969590003</v>
+        <v>-0.01571425815784909</v>
       </c>
       <c r="D6">
-        <v>0.9862466098473044</v>
+        <v>0.9876039936595451</v>
       </c>
       <c r="E6">
         <v>0.6924137945005728</v>
@@ -571,10 +571,10 @@
         <v>100</v>
       </c>
       <c r="C7">
-        <v>0.3917310922116709</v>
+        <v>0.4520307547817693</v>
       </c>
       <c r="D7">
-        <v>0.6953066258651353</v>
+        <v>0.6556721540292556</v>
       </c>
       <c r="E7">
         <v>0.6924137945005728</v>
@@ -597,10 +597,10 @@
         <v>200</v>
       </c>
       <c r="C8">
-        <v>3.751219079807143</v>
+        <v>3.408075197681598</v>
       </c>
       <c r="D8">
-        <v>0.0001819536181497661</v>
+        <v>0.002522223241182564</v>
       </c>
       <c r="E8">
         <v>0.6924137945005728</v>
@@ -623,10 +623,10 @@
         <v>100</v>
       </c>
       <c r="C9">
-        <v>0.3916219093255557</v>
+        <v>0.3635935300073379</v>
       </c>
       <c r="D9">
-        <v>0.6953872934370668</v>
+        <v>0.7196322249386398</v>
       </c>
       <c r="E9">
         <v>0.6929370745500671</v>
@@ -649,10 +649,10 @@
         <v>200</v>
       </c>
       <c r="C10">
-        <v>3.190643040416829</v>
+        <v>2.349284541777692</v>
       </c>
       <c r="D10">
-        <v>0.001445798570156809</v>
+        <v>0.02819790319968396</v>
       </c>
       <c r="E10">
         <v>0.6929370745500671</v>
@@ -675,10 +675,10 @@
         <v>200</v>
       </c>
       <c r="C11">
-        <v>3.144182553989966</v>
+        <v>2.275928573368112</v>
       </c>
       <c r="D11">
-        <v>0.001694665412101726</v>
+        <v>0.03293977649519375</v>
       </c>
       <c r="E11">
         <v>0.6822921572404458</v>
